--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H2">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I2">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J2">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N2">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O2">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P2">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q2">
-        <v>556.2317676612354</v>
+        <v>237.7270127602178</v>
       </c>
       <c r="R2">
-        <v>5006.085908951118</v>
+        <v>2139.54311484196</v>
       </c>
       <c r="S2">
-        <v>0.04522260632615142</v>
+        <v>0.03991155740039611</v>
       </c>
       <c r="T2">
-        <v>0.04801783225636747</v>
+        <v>0.04198406544558065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H3">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I3">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J3">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P3">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q3">
-        <v>0.2286845471573333</v>
+        <v>0.1657787020515556</v>
       </c>
       <c r="R3">
-        <v>2.058160924416</v>
+        <v>1.492008318464</v>
       </c>
       <c r="S3">
-        <v>1.859244985674525E-05</v>
+        <v>2.783228588905675E-05</v>
       </c>
       <c r="T3">
-        <v>1.974165602082613E-05</v>
+        <v>2.927754736663502E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H4">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I4">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J4">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N4">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O4">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P4">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q4">
-        <v>20.75371496375133</v>
+        <v>24.88984716629667</v>
       </c>
       <c r="R4">
-        <v>186.783434673762</v>
+        <v>224.00862449667</v>
       </c>
       <c r="S4">
-        <v>0.001687312980265604</v>
+        <v>0.004178711339239838</v>
       </c>
       <c r="T4">
-        <v>0.001791606416181551</v>
+        <v>0.004395701440182191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H5">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I5">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J5">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N5">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O5">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P5">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q5">
-        <v>5.404880893839</v>
+        <v>2.052955990230333</v>
       </c>
       <c r="R5">
-        <v>32.429285363034</v>
+        <v>12.317735941382</v>
       </c>
       <c r="S5">
-        <v>0.000439426180078734</v>
+        <v>0.0003446670611522385</v>
       </c>
       <c r="T5">
-        <v>0.0003110581825956525</v>
+        <v>0.0002417098437123866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H6">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I6">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J6">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N6">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O6">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P6">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q6">
-        <v>7.075805762365999</v>
+        <v>10.48145623038</v>
       </c>
       <c r="R6">
-        <v>63.68225186129399</v>
+        <v>94.33310607342001</v>
       </c>
       <c r="S6">
-        <v>0.0005752752665983547</v>
+        <v>0.001759712693653786</v>
       </c>
       <c r="T6">
-        <v>0.0006108332424171386</v>
+        <v>0.001851090203136156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J7">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N7">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O7">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P7">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q7">
-        <v>4118.690481844607</v>
+        <v>2428.230917782138</v>
       </c>
       <c r="R7">
-        <v>37068.21433660146</v>
+        <v>21854.07826003924</v>
       </c>
       <c r="S7">
-        <v>0.3348566713887567</v>
+        <v>0.4076712887240569</v>
       </c>
       <c r="T7">
-        <v>0.355554285409964</v>
+        <v>0.4288406461909989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J8">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P8">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q8">
         <v>1.693324478179555</v>
@@ -948,10 +948,10 @@
         <v>15.239920303616</v>
       </c>
       <c r="S8">
-        <v>0.0001376702135894324</v>
+        <v>0.0002842891782623231</v>
       </c>
       <c r="T8">
-        <v>0.0001461796601274801</v>
+        <v>0.0002990516091841923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J9">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N9">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O9">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P9">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q9">
-        <v>153.6735822254902</v>
+        <v>254.2340297231366</v>
       </c>
       <c r="R9">
-        <v>1383.062240029412</v>
+        <v>2288.10626750823</v>
       </c>
       <c r="S9">
-        <v>0.01249392845887455</v>
+        <v>0.04268289056685189</v>
       </c>
       <c r="T9">
-        <v>0.01326618277227344</v>
+        <v>0.04489930706005178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J10">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N10">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O10">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P10">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q10">
-        <v>40.021143680014</v>
+        <v>20.96964560502633</v>
       </c>
       <c r="R10">
-        <v>240.126862080084</v>
+        <v>125.817873630158</v>
       </c>
       <c r="S10">
-        <v>0.003253788313769746</v>
+        <v>0.003520555802697689</v>
       </c>
       <c r="T10">
-        <v>0.002303270777473577</v>
+        <v>0.002468913014217307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J11">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N11">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O11">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P11">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q11">
-        <v>52.39372423364932</v>
+        <v>107.06143902822</v>
       </c>
       <c r="R11">
-        <v>471.5435181028439</v>
+        <v>963.55295125398</v>
       </c>
       <c r="S11">
-        <v>0.004259700547025029</v>
+        <v>0.01797435099836021</v>
       </c>
       <c r="T11">
-        <v>0.004522994204584839</v>
+        <v>0.01890771440178136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H12">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I12">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J12">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N12">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O12">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P12">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q12">
-        <v>2023.019238204435</v>
+        <v>1082.063327237871</v>
       </c>
       <c r="R12">
-        <v>18207.17314383992</v>
+        <v>9738.569945140838</v>
       </c>
       <c r="S12">
-        <v>0.1644749687422891</v>
+        <v>0.1816656512631069</v>
       </c>
       <c r="T12">
-        <v>0.1746412270553147</v>
+        <v>0.1910990973198309</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H13">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I13">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J13">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P13">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q13">
-        <v>0.8317274655573332</v>
+        <v>0.7545758130062221</v>
       </c>
       <c r="R13">
-        <v>7.485547190016</v>
+        <v>6.791182317055999</v>
       </c>
       <c r="S13">
-        <v>6.762088383354348E-05</v>
+        <v>0.0001266843659206918</v>
       </c>
       <c r="T13">
-        <v>7.18005555347374E-05</v>
+        <v>0.0001332627703897474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H14">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I14">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J14">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N14">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O14">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P14">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q14">
-        <v>75.48142173255131</v>
+        <v>113.2912517029366</v>
       </c>
       <c r="R14">
-        <v>679.3327955929619</v>
+        <v>1019.62126532643</v>
       </c>
       <c r="S14">
-        <v>0.006136770350787118</v>
+        <v>0.01902026295962083</v>
       </c>
       <c r="T14">
-        <v>0.006516086383317105</v>
+        <v>0.02000793797339889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H15">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I15">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J15">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N15">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O15">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P15">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q15">
-        <v>19.657593586239</v>
+        <v>9.344450862646331</v>
       </c>
       <c r="R15">
-        <v>117.945561517434</v>
+        <v>56.06670517587799</v>
       </c>
       <c r="S15">
-        <v>0.001598196413354402</v>
+        <v>0.00156882292276926</v>
       </c>
       <c r="T15">
-        <v>0.001131321014327906</v>
+        <v>0.001100192000382293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H16">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I16">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J16">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N16">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O16">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P16">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q16">
-        <v>25.73476024796599</v>
+        <v>47.70850090302</v>
       </c>
       <c r="R16">
-        <v>231.612842231694</v>
+        <v>429.37650812718</v>
       </c>
       <c r="S16">
-        <v>0.002092280591029543</v>
+        <v>0.008009693766683193</v>
       </c>
       <c r="T16">
-        <v>0.002221605223916779</v>
+        <v>0.008425617269852494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H17">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I17">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J17">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N17">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O17">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P17">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q17">
-        <v>1925.661350224148</v>
+        <v>725.1066868199933</v>
       </c>
       <c r="R17">
-        <v>11553.96810134489</v>
+        <v>4350.64012091996</v>
       </c>
       <c r="S17">
-        <v>0.1565596037867955</v>
+        <v>0.1217368477246527</v>
       </c>
       <c r="T17">
-        <v>0.1108244069870629</v>
+        <v>0.08537222657481466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H18">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I18">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J18">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.189184</v>
       </c>
       <c r="O18">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P18">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q18">
-        <v>0.7917005454506666</v>
+        <v>0.5056524456106667</v>
       </c>
       <c r="R18">
-        <v>4.750203272703999</v>
+        <v>3.033914673664</v>
       </c>
       <c r="S18">
-        <v>6.43666258862798E-05</v>
+        <v>8.489307282886124E-05</v>
       </c>
       <c r="T18">
-        <v>4.556343380454273E-05</v>
+        <v>5.953423949805547E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H19">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I19">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J19">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N19">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O19">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P19">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q19">
-        <v>71.84887506030465</v>
+        <v>75.918148319195</v>
       </c>
       <c r="R19">
-        <v>431.0932503618279</v>
+        <v>455.50888991517</v>
       </c>
       <c r="S19">
-        <v>0.005841438013313667</v>
+        <v>0.01274576035424945</v>
       </c>
       <c r="T19">
-        <v>0.004134999630292721</v>
+        <v>0.008938410688047722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H20">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I20">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J20">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N20">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O20">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P20">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q20">
-        <v>18.711571048149</v>
+        <v>6.2618551378705</v>
       </c>
       <c r="R20">
-        <v>74.846284192596</v>
+        <v>25.047420551482</v>
       </c>
       <c r="S20">
-        <v>0.001521283142119297</v>
+        <v>0.001051291512337156</v>
       </c>
       <c r="T20">
-        <v>0.000717917427854428</v>
+        <v>0.0004915033197422055</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H21">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I21">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J21">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N21">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O21">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P21">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q21">
-        <v>24.49627380250599</v>
+        <v>31.97017415907</v>
       </c>
       <c r="R21">
-        <v>146.977642815036</v>
+        <v>191.82104495442</v>
       </c>
       <c r="S21">
-        <v>0.00199158949746111</v>
+        <v>0.005367414608189239</v>
       </c>
       <c r="T21">
-        <v>0.001409793584546654</v>
+        <v>0.003764087411625222</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H22">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I22">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J22">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N22">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O22">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P22">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q22">
-        <v>2978.284697359096</v>
+        <v>669.9757734801244</v>
       </c>
       <c r="R22">
-        <v>26804.56227623187</v>
+        <v>6029.78196132112</v>
       </c>
       <c r="S22">
-        <v>0.2421397054723775</v>
+        <v>0.1124810185836883</v>
       </c>
       <c r="T22">
-        <v>0.2571064497283331</v>
+        <v>0.1183218785031996</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H23">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I23">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J23">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.189184</v>
       </c>
       <c r="O23">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P23">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q23">
-        <v>1.224467437710222</v>
+        <v>0.4672069566008888</v>
       </c>
       <c r="R23">
-        <v>11.020206939392</v>
+        <v>4.204862609408</v>
       </c>
       <c r="S23">
-        <v>9.955132395186242E-05</v>
+        <v>7.843852934394507E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001057046279010129</v>
+        <v>8.25116473505142E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H24">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I24">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J24">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N24">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O24">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P24">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q24">
-        <v>111.1235914298549</v>
+        <v>70.14598136502666</v>
       </c>
       <c r="R24">
-        <v>1000.112322868694</v>
+        <v>631.31383228524</v>
       </c>
       <c r="S24">
-        <v>0.009034540493632868</v>
+        <v>0.01177668170373729</v>
       </c>
       <c r="T24">
-        <v>0.009592968764512644</v>
+        <v>0.0123882155341944</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H25">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I25">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J25">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N25">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O25">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P25">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q25">
-        <v>28.939868222293</v>
+        <v>5.785757207417332</v>
       </c>
       <c r="R25">
-        <v>173.639209333758</v>
+        <v>34.714543244504</v>
       </c>
       <c r="S25">
-        <v>0.002352861421867804</v>
+        <v>0.0009713602935039917</v>
       </c>
       <c r="T25">
-        <v>0.001665528434501759</v>
+        <v>0.0006812004139483548</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H26">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I26">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J26">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N26">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O26">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P26">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q26">
-        <v>37.88666028937533</v>
+        <v>29.53943543736</v>
       </c>
       <c r="R26">
-        <v>340.979942604378</v>
+        <v>265.85491893624</v>
       </c>
       <c r="S26">
-        <v>0.00308025111633418</v>
+        <v>0.004959322288807986</v>
       </c>
       <c r="T26">
-        <v>0.00327064257077309</v>
+        <v>0.005216847577513347</v>
       </c>
     </row>
   </sheetData>
